--- a/Others/Office Inventory list.xlsx
+++ b/Others/Office Inventory list.xlsx
@@ -590,7 +590,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D18"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Others/Office Inventory list.xlsx
+++ b/Others/Office Inventory list.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="15600" windowHeight="11025"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="15600" windowHeight="11025" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hello Daffodils" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
   <si>
     <t>Name of Item</t>
   </si>
@@ -112,9 +113,6 @@
     <t>Router</t>
   </si>
   <si>
-    <t>Date. 26-06-2021</t>
-  </si>
-  <si>
     <t>S.N</t>
   </si>
   <si>
@@ -131,6 +129,9 @@
   </si>
   <si>
     <t>Kechi Gate</t>
+  </si>
+  <si>
+    <t>Date. 16-11-2021</t>
   </si>
 </sst>
 </file>
@@ -589,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,7 +604,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -611,7 +612,7 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -623,7 +624,7 @@
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="15" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D3" s="15"/>
     </row>
@@ -635,7 +636,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>0</v>
@@ -753,7 +754,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="6">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" s="5"/>
     </row>
@@ -801,7 +802,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18" s="5"/>
     </row>
@@ -849,7 +850,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="6">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D22" s="5"/>
     </row>
@@ -966,7 +967,7 @@
         <v>39</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="6">
         <v>12</v>
@@ -1002,7 +1003,7 @@
         <v>46</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="7">
         <v>6</v>
@@ -1014,7 +1015,7 @@
         <v>47</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" s="7">
         <v>1</v>
@@ -1046,4 +1047,444 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="95" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>6</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="6">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>7</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="6">
+        <v>3</v>
+      </c>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>9</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="6">
+        <v>25</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="6">
+        <v>4</v>
+      </c>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>11</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>12</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>13</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="6">
+        <v>6</v>
+      </c>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>14</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>15</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>16</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="6">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>17</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="6">
+        <v>18</v>
+      </c>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>18</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="6">
+        <v>8</v>
+      </c>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>19</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="6">
+        <v>2</v>
+      </c>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>20</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="6">
+        <v>4</v>
+      </c>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>21</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>22</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="6">
+        <v>2</v>
+      </c>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>23</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="6">
+        <v>2</v>
+      </c>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>24</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="6">
+        <v>3</v>
+      </c>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>25</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="6">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>26</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>27</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="6">
+        <v>2</v>
+      </c>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>28</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="7">
+        <v>6</v>
+      </c>
+      <c r="D33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>29</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:D4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="110" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Others/Office Inventory list.xlsx
+++ b/Others/Office Inventory list.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="15600" windowHeight="11025" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="15600" windowHeight="11025" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hello Daffodils" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="47">
   <si>
     <t>Name of Item</t>
   </si>
@@ -132,13 +133,37 @@
   </si>
   <si>
     <t>Date. 16-11-2021</t>
+  </si>
+  <si>
+    <t>SR Chair</t>
+  </si>
+  <si>
+    <t>Hatol Chair</t>
+  </si>
+  <si>
+    <t>Plastic Busket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papos </t>
+  </si>
+  <si>
+    <t>Sumon</t>
+  </si>
+  <si>
+    <t>Mugdho Corporation</t>
+  </si>
+  <si>
+    <t>Barcode Scaner</t>
+  </si>
+  <si>
+    <t>Mobile(Samphony)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +200,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -202,7 +249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -236,11 +283,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -283,6 +365,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,7 +703,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A5" sqref="A5:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,4 +1599,400 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="110" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
+    </row>
+    <row r="4" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>1</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="25">
+        <v>1</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>2</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="25">
+        <v>1</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>3</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="25">
+        <v>1</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>4</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="25">
+        <v>1</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>5</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="25">
+        <v>3</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>6</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="25">
+        <v>1</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>7</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="25">
+        <v>3</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+    </row>
+    <row r="12" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
+        <v>8</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="25">
+        <v>20</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+    </row>
+    <row r="13" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="23">
+        <v>9</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="25">
+        <v>1</v>
+      </c>
+      <c r="D13" s="25">
+        <v>4</v>
+      </c>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
+        <v>10</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="25">
+        <v>1</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+    </row>
+    <row r="15" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="23">
+        <v>11</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="25">
+        <v>1</v>
+      </c>
+      <c r="D15" s="25">
+        <v>1</v>
+      </c>
+      <c r="E15" s="25"/>
+    </row>
+    <row r="16" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="23">
+        <v>12</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="25">
+        <v>16</v>
+      </c>
+      <c r="D16" s="25">
+        <v>2</v>
+      </c>
+      <c r="E16" s="25"/>
+    </row>
+    <row r="17" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="23">
+        <v>13</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="25">
+        <v>1</v>
+      </c>
+      <c r="D17" s="25">
+        <v>1</v>
+      </c>
+      <c r="E17" s="25"/>
+    </row>
+    <row r="18" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="23">
+        <v>14</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="25">
+        <v>5</v>
+      </c>
+      <c r="D18" s="25">
+        <v>2</v>
+      </c>
+      <c r="E18" s="25"/>
+    </row>
+    <row r="19" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="23">
+        <v>15</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="25">
+        <v>2</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+    </row>
+    <row r="20" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="23">
+        <v>16</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="25">
+        <v>4</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+    </row>
+    <row r="21" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="23">
+        <v>17</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="25">
+        <v>1</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+    </row>
+    <row r="22" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="23">
+        <v>18</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="25">
+        <v>2</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+    </row>
+    <row r="23" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="23">
+        <v>19</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="25">
+        <v>3</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+    </row>
+    <row r="24" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="23">
+        <v>20</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="25">
+        <v>1</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+    </row>
+    <row r="25" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="23">
+        <v>21</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="25">
+        <v>5</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="23">
+        <v>22</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="25">
+        <v>1</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+    </row>
+    <row r="27" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="23">
+        <v>23</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="23">
+        <v>2</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+    </row>
+    <row r="28" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="23">
+        <v>24</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Others/Office Inventory list.xlsx
+++ b/Others/Office Inventory list.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="15600" windowHeight="11025" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="15600" windowHeight="11025" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hello Daffodils" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="52">
   <si>
     <t>Name of Item</t>
   </si>
@@ -157,13 +158,28 @@
   </si>
   <si>
     <t>Mobile(Samphony)</t>
+  </si>
+  <si>
+    <t>Plastic Chair</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Cash Details As Per Below</t>
+  </si>
+  <si>
+    <t>17,500 (Seventeen Thousand five Hundred Taka)Given to Sumon(Manager Cell Daffodils)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,8 +238,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,6 +268,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -351,6 +386,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -381,21 +431,19 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -715,36 +763,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -1178,36 +1226,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -1605,8 +1653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1619,370 +1667,372 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="22" t="s">
+      <c r="C4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
-        <v>1</v>
-      </c>
-      <c r="B5" s="24" t="s">
+      <c r="A5" s="13">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="25">
-        <v>1</v>
-      </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="C5" s="15">
+        <v>1</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
+      <c r="A6" s="13">
         <v>2</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="25">
-        <v>1</v>
-      </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+      <c r="A7" s="13">
         <v>3</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="25">
-        <v>1</v>
-      </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="C7" s="15">
+        <v>1</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
+      <c r="A8" s="13">
         <v>4</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="25">
-        <v>1</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+      <c r="C8" s="15">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+      <c r="A9" s="13">
         <v>5</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="15">
+        <v>2</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>6</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>7</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15">
         <v>3</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-    </row>
-    <row r="10" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+    </row>
+    <row r="12" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>8</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="15">
+        <v>20</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="15">
+        <v>1</v>
+      </c>
+      <c r="D13" s="15">
+        <v>4</v>
+      </c>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>10</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="15">
+        <v>1</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>11</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>12</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="15">
+        <v>16</v>
+      </c>
+      <c r="D16" s="15">
+        <v>2</v>
+      </c>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>13</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="15">
+        <v>1</v>
+      </c>
+      <c r="D17" s="15">
+        <v>1</v>
+      </c>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>14</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="C18" s="15">
+        <v>5</v>
+      </c>
+      <c r="D18" s="15">
+        <v>2</v>
+      </c>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>15</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="15">
+        <v>2</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>16</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="15">
+        <v>4</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>17</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="15">
+        <v>1</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>18</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="15">
+        <v>2</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
         <v>19</v>
       </c>
-      <c r="C10" s="25">
-        <v>1</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-    </row>
-    <row r="11" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
-        <v>7</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="25">
+      <c r="B23" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="15">
         <v>3</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-    </row>
-    <row r="12" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
-        <v>8</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="25">
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
         <v>20</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-    </row>
-    <row r="13" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
-        <v>9</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="25">
-        <v>1</v>
-      </c>
-      <c r="D13" s="25">
-        <v>4</v>
-      </c>
-      <c r="E13" s="25"/>
-    </row>
-    <row r="14" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
+      <c r="B24" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="C24" s="15">
+        <v>1</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>21</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="15">
+        <v>5</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>22</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="15">
+        <v>1</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
         <v>23</v>
       </c>
-      <c r="C14" s="25">
-        <v>1</v>
-      </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-    </row>
-    <row r="15" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
-        <v>11</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="25">
-        <v>1</v>
-      </c>
-      <c r="D15" s="25">
-        <v>1</v>
-      </c>
-      <c r="E15" s="25"/>
-    </row>
-    <row r="16" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
-        <v>12</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="25">
-        <v>16</v>
-      </c>
-      <c r="D16" s="25">
+      <c r="B27" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="13">
         <v>2</v>
       </c>
-      <c r="E16" s="25"/>
-    </row>
-    <row r="17" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
-        <v>13</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="25">
-        <v>1</v>
-      </c>
-      <c r="D17" s="25">
-        <v>1</v>
-      </c>
-      <c r="E17" s="25"/>
-    </row>
-    <row r="18" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="23">
-        <v>14</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="25">
-        <v>5</v>
-      </c>
-      <c r="D18" s="25">
-        <v>2</v>
-      </c>
-      <c r="E18" s="25"/>
-    </row>
-    <row r="19" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
-        <v>15</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="25">
-        <v>2</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-    </row>
-    <row r="20" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="23">
-        <v>16</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="25">
-        <v>4</v>
-      </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-    </row>
-    <row r="21" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="23">
-        <v>17</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="25">
-        <v>1</v>
-      </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-    </row>
-    <row r="22" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="23">
-        <v>18</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="25">
-        <v>2</v>
-      </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-    </row>
-    <row r="23" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="23">
-        <v>19</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="25">
-        <v>3</v>
-      </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-    </row>
-    <row r="24" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="23">
-        <v>20</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="25">
-        <v>1</v>
-      </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-    </row>
-    <row r="25" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="23">
-        <v>21</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="25">
-        <v>5</v>
-      </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="23">
-        <v>22</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="25">
-        <v>1</v>
-      </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-    </row>
-    <row r="27" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="23">
-        <v>23</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="23">
-        <v>2</v>
-      </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
     </row>
     <row r="28" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="23">
+      <c r="A28" s="13">
         <v>24</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23">
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13">
         <v>1</v>
       </c>
     </row>
@@ -1995,4 +2045,79 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="30"/>
+    </row>
+    <row r="3" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+    </row>
+    <row r="7" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="B7" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="28"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>